--- a/artfynd/Gubbmyran artfynd.xlsx
+++ b/artfynd/Gubbmyran artfynd.xlsx
@@ -3191,10 +3191,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>403105</v>
+        <v>16944491</v>
       </c>
       <c r="B25" t="n">
-        <v>91245</v>
+        <v>91263</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3202,37 +3202,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Sydost Gubbmyran, Ly lm</t>
+          <t>Gubbträskbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>659054</v>
+        <v>658680</v>
       </c>
       <c r="R25" t="n">
-        <v>7140493</v>
+        <v>7141084</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2003-08-01</t>
+          <t>2014-08-13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2003-11-01</t>
+          <t>2014-08-13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3273,40 +3273,40 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>granurskog</t>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16944491</v>
+        <v>16944540</v>
       </c>
       <c r="B26" t="n">
-        <v>91263</v>
+        <v>91259</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3314,21 +3314,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3338,10 +3338,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>658680</v>
+        <v>658488</v>
       </c>
       <c r="R26" t="n">
-        <v>7141084</v>
+        <v>7141158</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3395,9 +3395,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>låga</t>
+        </is>
+      </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Picea abies # låga</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3415,10 +3420,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16944540</v>
+        <v>403105</v>
       </c>
       <c r="B27" t="n">
-        <v>91259</v>
+        <v>91245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3426,37 +3431,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Gubbträskbäcken, Ly lm</t>
+          <t>Sydost Gubbmyran, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>658488</v>
+        <v>659054</v>
       </c>
       <c r="R27" t="n">
-        <v>7141158</v>
+        <v>7140493</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3480,12 +3485,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2014-08-13</t>
+          <t>2003-08-01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2014-08-13</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3497,35 +3502,30 @@
       <c r="AG27" t="b">
         <v>0</v>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>låga</t>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>granurskog</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Picea abies # låga</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>

--- a/artfynd/Gubbmyran artfynd.xlsx
+++ b/artfynd/Gubbmyran artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>383870</v>
+        <v>435703</v>
       </c>
       <c r="B3" t="n">
-        <v>82792</v>
+        <v>75080</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>1467</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>659313</v>
+        <v>659052</v>
       </c>
       <c r="R3" t="n">
-        <v>7140616</v>
+        <v>7140732</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>björkhögstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>435703</v>
+        <v>383870</v>
       </c>
       <c r="B4" t="n">
-        <v>75080</v>
+        <v>82792</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1467</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>659052</v>
+        <v>659313</v>
       </c>
       <c r="R4" t="n">
-        <v>7140732</v>
+        <v>7140616</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>björkhögstubbe</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56606353</v>
+        <v>16945122</v>
       </c>
       <c r="B19" t="n">
-        <v>91245</v>
+        <v>79012</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2570,21 +2570,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>657887</v>
+        <v>658643</v>
       </c>
       <c r="R19" t="n">
-        <v>7142186</v>
+        <v>7140575</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2644,22 +2644,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56606354</v>
+        <v>56606353</v>
       </c>
       <c r="B20" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2667,21 +2667,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>657939</v>
+        <v>657887</v>
       </c>
       <c r="R20" t="n">
-        <v>7142126</v>
+        <v>7142186</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16945122</v>
+        <v>56606354</v>
       </c>
       <c r="B21" t="n">
-        <v>79012</v>
+        <v>91541</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2764,21 +2764,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>658</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2788,13 +2788,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>658643</v>
+        <v>657939</v>
       </c>
       <c r="R21" t="n">
-        <v>7140575</v>
+        <v>7142126</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2838,12 +2838,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16944491</v>
+        <v>403105</v>
       </c>
       <c r="B25" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3202,37 +3202,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Gubbträskbäcken, Ly lm</t>
+          <t>Sydost Gubbmyran, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>658680</v>
+        <v>659054</v>
       </c>
       <c r="R25" t="n">
-        <v>7141084</v>
+        <v>7140493</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2014-08-13</t>
+          <t>2003-08-01</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2014-08-13</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3273,40 +3273,40 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>granurskog</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16944540</v>
+        <v>16944491</v>
       </c>
       <c r="B26" t="n">
-        <v>91259</v>
+        <v>91263</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3314,21 +3314,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3338,10 +3338,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>658488</v>
+        <v>658680</v>
       </c>
       <c r="R26" t="n">
-        <v>7141158</v>
+        <v>7141084</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3395,14 +3395,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>låga</t>
-        </is>
-      </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Picea abies # låga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3420,10 +3415,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>403105</v>
+        <v>16944540</v>
       </c>
       <c r="B27" t="n">
-        <v>91245</v>
+        <v>91259</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3431,37 +3426,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sydost Gubbmyran, Ly lm</t>
+          <t>Gubbträskbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>659054</v>
+        <v>658488</v>
       </c>
       <c r="R27" t="n">
-        <v>7140493</v>
+        <v>7141158</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3485,12 +3480,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2003-08-01</t>
+          <t>2014-08-13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2003-11-01</t>
+          <t>2014-08-13</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3502,30 +3497,35 @@
       <c r="AG27" t="b">
         <v>0</v>
       </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>granurskog</t>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>låga</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>Picea abies # låga</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1540141</v>
+        <v>1540140</v>
       </c>
       <c r="B38" t="n">
         <v>91263</v>
@@ -4657,13 +4657,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>659313</v>
+        <v>659084</v>
       </c>
       <c r="R38" t="n">
-        <v>7140616</v>
+        <v>7140513</v>
       </c>
       <c r="S38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4711,7 +4711,12 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>granurskog!</t>
+          <t>granurskog</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4729,7 +4734,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1540140</v>
+        <v>1540141</v>
       </c>
       <c r="B39" t="n">
         <v>91263</v>
@@ -4764,13 +4769,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>659084</v>
+        <v>659313</v>
       </c>
       <c r="R39" t="n">
-        <v>7140513</v>
+        <v>7140616</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4818,12 +4823,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>granurskog</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>granlåga</t>
+          <t>granurskog!</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
